--- a/OfficeStarPositioning/OfficeStar_positioning.xlsx
+++ b/OfficeStarPositioning/OfficeStar_positioning.xlsx
@@ -1,22 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26915"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jlopezsi/Documents/github/mktg-models-projects/OfficeStarPositioning/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="375" windowWidth="16035" windowHeight="9750" activeTab="1"/>
+    <workbookView xWindow="12320" yWindow="600" windowWidth="16040" windowHeight="9760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="per" sheetId="1" r:id="rId1"/>
     <sheet name="prefs" sheetId="2" r:id="rId2"/>
-    <sheet name="ii" sheetId="3" r:id="rId3"/>
+    <sheet name="ideal" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="23">
   <si>
     <t>OfficeStar</t>
   </si>
@@ -90,8 +103,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,13 +141,18 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de l'Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Oficina">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -172,14 +190,14 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Oficina">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -206,14 +224,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -240,9 +259,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Oficina">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -415,20 +435,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="15.83203125" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -445,7 +465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -462,7 +482,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -479,7 +499,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -496,7 +516,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -513,7 +533,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -536,22 +556,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="16.5" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -571,7 +591,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -591,7 +611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -611,7 +631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -631,7 +651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -651,7 +671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -671,7 +691,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -691,7 +711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -711,7 +731,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -731,7 +751,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -751,7 +771,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -777,15 +797,244 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>